--- a/DataSet/Table1.xlsx
+++ b/DataSet/Table1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="6675" windowHeight="6990"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -850,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167:E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -936,36 +936,6 @@
       <c r="E2">
         <v>0.92</v>
       </c>
-      <c r="F2">
-        <v>56</v>
-      </c>
-      <c r="G2">
-        <v>86</v>
-      </c>
-      <c r="H2">
-        <v>0.66</v>
-      </c>
-      <c r="I2">
-        <v>0.7</v>
-      </c>
-      <c r="J2">
-        <v>0.72</v>
-      </c>
-      <c r="K2">
-        <v>111</v>
-      </c>
-      <c r="L2">
-        <v>153</v>
-      </c>
-      <c r="M2">
-        <v>0.93</v>
-      </c>
-      <c r="N2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O2">
-        <v>0.79</v>
-      </c>
       <c r="P2">
         <v>166</v>
       </c>
@@ -998,36 +968,6 @@
       <c r="E3">
         <v>0.81</v>
       </c>
-      <c r="F3">
-        <v>57</v>
-      </c>
-      <c r="G3">
-        <v>87</v>
-      </c>
-      <c r="H3">
-        <v>0.97</v>
-      </c>
-      <c r="I3">
-        <v>0.96</v>
-      </c>
-      <c r="J3">
-        <v>0.95</v>
-      </c>
-      <c r="K3">
-        <v>112</v>
-      </c>
-      <c r="L3">
-        <v>154</v>
-      </c>
-      <c r="M3">
-        <v>0.82</v>
-      </c>
-      <c r="N3">
-        <v>0.7</v>
-      </c>
-      <c r="O3">
-        <v>0.75</v>
-      </c>
       <c r="P3">
         <v>167</v>
       </c>
@@ -1060,36 +1000,6 @@
       <c r="E4">
         <v>0.64</v>
       </c>
-      <c r="F4">
-        <v>58</v>
-      </c>
-      <c r="G4">
-        <v>88</v>
-      </c>
-      <c r="H4">
-        <v>0.81</v>
-      </c>
-      <c r="I4">
-        <v>0.52</v>
-      </c>
-      <c r="J4">
-        <v>0.65</v>
-      </c>
-      <c r="K4">
-        <v>113</v>
-      </c>
-      <c r="L4">
-        <v>155</v>
-      </c>
-      <c r="M4">
-        <v>0.75</v>
-      </c>
-      <c r="N4">
-        <v>0.94</v>
-      </c>
-      <c r="O4">
-        <v>0.71</v>
-      </c>
       <c r="P4">
         <v>168</v>
       </c>
@@ -1122,36 +1032,6 @@
       <c r="E5">
         <v>0.87</v>
       </c>
-      <c r="F5">
-        <v>59</v>
-      </c>
-      <c r="G5">
-        <v>89</v>
-      </c>
-      <c r="H5">
-        <v>0.39</v>
-      </c>
-      <c r="I5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K5">
-        <v>114</v>
-      </c>
-      <c r="L5">
-        <v>156</v>
-      </c>
-      <c r="M5">
-        <v>0.75</v>
-      </c>
-      <c r="N5">
-        <v>0.76</v>
-      </c>
-      <c r="O5">
-        <v>0.7</v>
-      </c>
       <c r="P5">
         <v>169</v>
       </c>
@@ -1184,36 +1064,6 @@
       <c r="E6">
         <v>0.87</v>
       </c>
-      <c r="F6">
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <v>90</v>
-      </c>
-      <c r="H6">
-        <v>0.87</v>
-      </c>
-      <c r="I6">
-        <v>0.97</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>115</v>
-      </c>
-      <c r="L6">
-        <v>157</v>
-      </c>
-      <c r="M6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.68</v>
-      </c>
-      <c r="O6">
-        <v>0.44</v>
-      </c>
       <c r="P6">
         <v>170</v>
       </c>
@@ -1246,36 +1096,6 @@
       <c r="E7">
         <v>0.34</v>
       </c>
-      <c r="F7">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <v>91</v>
-      </c>
-      <c r="H7">
-        <v>1.05</v>
-      </c>
-      <c r="I7">
-        <v>0.77</v>
-      </c>
-      <c r="J7">
-        <v>0.84</v>
-      </c>
-      <c r="K7">
-        <v>116</v>
-      </c>
-      <c r="L7">
-        <v>158</v>
-      </c>
-      <c r="M7">
-        <v>0.66</v>
-      </c>
-      <c r="N7">
-        <v>0.86</v>
-      </c>
-      <c r="O7">
-        <v>0.05</v>
-      </c>
       <c r="P7">
         <v>171</v>
       </c>
@@ -1308,36 +1128,6 @@
       <c r="E8">
         <v>-0.16</v>
       </c>
-      <c r="F8">
-        <v>62</v>
-      </c>
-      <c r="G8">
-        <v>92</v>
-      </c>
-      <c r="H8">
-        <v>0.9</v>
-      </c>
-      <c r="I8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J8">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K8">
-        <v>117</v>
-      </c>
-      <c r="L8">
-        <v>160</v>
-      </c>
-      <c r="M8">
-        <v>0.54</v>
-      </c>
-      <c r="N8">
-        <v>0.66</v>
-      </c>
-      <c r="O8">
-        <v>0.59</v>
-      </c>
       <c r="P8">
         <v>172</v>
       </c>
@@ -1370,36 +1160,6 @@
       <c r="E9">
         <v>0.41</v>
       </c>
-      <c r="F9">
-        <v>63</v>
-      </c>
-      <c r="G9">
-        <v>93</v>
-      </c>
-      <c r="H9">
-        <v>0.97</v>
-      </c>
-      <c r="I9">
-        <v>0.99</v>
-      </c>
-      <c r="J9">
-        <v>0.46</v>
-      </c>
-      <c r="K9">
-        <v>118</v>
-      </c>
-      <c r="L9">
-        <v>161</v>
-      </c>
-      <c r="M9">
-        <v>0.89</v>
-      </c>
-      <c r="N9">
-        <v>0.83</v>
-      </c>
-      <c r="O9">
-        <v>0.86</v>
-      </c>
       <c r="P9">
         <v>173</v>
       </c>
@@ -1432,36 +1192,6 @@
       <c r="E10">
         <v>1.06</v>
       </c>
-      <c r="F10">
-        <v>64</v>
-      </c>
-      <c r="G10">
-        <v>95</v>
-      </c>
-      <c r="H10">
-        <v>1.31</v>
-      </c>
-      <c r="I10">
-        <v>0.89</v>
-      </c>
-      <c r="J10">
-        <v>0.87</v>
-      </c>
-      <c r="K10">
-        <v>119</v>
-      </c>
-      <c r="L10">
-        <v>162</v>
-      </c>
-      <c r="M10">
-        <v>1.07</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0.97</v>
-      </c>
       <c r="P10">
         <v>174</v>
       </c>
@@ -1494,36 +1224,6 @@
       <c r="E11">
         <v>0.15</v>
       </c>
-      <c r="F11">
-        <v>65</v>
-      </c>
-      <c r="G11">
-        <v>96</v>
-      </c>
-      <c r="H11">
-        <v>0.75</v>
-      </c>
-      <c r="I11">
-        <v>0.89</v>
-      </c>
-      <c r="J11">
-        <v>0.81</v>
-      </c>
-      <c r="K11">
-        <v>120</v>
-      </c>
-      <c r="L11">
-        <v>163</v>
-      </c>
-      <c r="M11">
-        <v>0.79</v>
-      </c>
-      <c r="N11">
-        <v>0.42</v>
-      </c>
-      <c r="O11">
-        <v>0.61</v>
-      </c>
       <c r="P11">
         <v>175</v>
       </c>
@@ -1556,36 +1256,6 @@
       <c r="E12">
         <v>0.3</v>
       </c>
-      <c r="F12">
-        <v>66</v>
-      </c>
-      <c r="G12">
-        <v>97</v>
-      </c>
-      <c r="H12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I12">
-        <v>0.42</v>
-      </c>
-      <c r="J12">
-        <v>0.76</v>
-      </c>
-      <c r="K12">
-        <v>121</v>
-      </c>
-      <c r="L12">
-        <v>164</v>
-      </c>
-      <c r="M12">
-        <v>0.94</v>
-      </c>
-      <c r="N12">
-        <v>0.85</v>
-      </c>
-      <c r="O12">
-        <v>0.71</v>
-      </c>
       <c r="P12">
         <v>176</v>
       </c>
@@ -1618,36 +1288,6 @@
       <c r="E13">
         <v>0.83</v>
       </c>
-      <c r="F13">
-        <v>67</v>
-      </c>
-      <c r="G13">
-        <v>98</v>
-      </c>
-      <c r="H13">
-        <v>0.88</v>
-      </c>
-      <c r="I13">
-        <v>0.98</v>
-      </c>
-      <c r="J13">
-        <v>0.86</v>
-      </c>
-      <c r="K13">
-        <v>122</v>
-      </c>
-      <c r="L13">
-        <v>165</v>
-      </c>
-      <c r="M13">
-        <v>1.07</v>
-      </c>
-      <c r="N13">
-        <v>0.96</v>
-      </c>
-      <c r="O13">
-        <v>1.02</v>
-      </c>
       <c r="P13">
         <v>177</v>
       </c>
@@ -1680,36 +1320,6 @@
       <c r="E14">
         <v>0.9</v>
       </c>
-      <c r="F14">
-        <v>68</v>
-      </c>
-      <c r="G14">
-        <v>99</v>
-      </c>
-      <c r="H14">
-        <v>0.88</v>
-      </c>
-      <c r="I14">
-        <v>0.72</v>
-      </c>
-      <c r="J14">
-        <v>0.79</v>
-      </c>
-      <c r="K14">
-        <v>123</v>
-      </c>
-      <c r="L14">
-        <v>166</v>
-      </c>
-      <c r="M14">
-        <v>0.71</v>
-      </c>
-      <c r="N14">
-        <v>0.93</v>
-      </c>
-      <c r="O14">
-        <v>0.77</v>
-      </c>
       <c r="P14">
         <v>178</v>
       </c>
@@ -1742,36 +1352,6 @@
       <c r="E15">
         <v>1.05</v>
       </c>
-      <c r="F15">
-        <v>69</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I15">
-        <v>0.66</v>
-      </c>
-      <c r="J15">
-        <v>0.16</v>
-      </c>
-      <c r="K15">
-        <v>124</v>
-      </c>
-      <c r="L15">
-        <v>167</v>
-      </c>
-      <c r="M15">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N15">
-        <v>0.76</v>
-      </c>
-      <c r="O15">
-        <v>0.56999999999999995</v>
-      </c>
       <c r="P15">
         <v>179</v>
       </c>
@@ -1804,36 +1384,6 @@
       <c r="E16">
         <v>0.16</v>
       </c>
-      <c r="F16">
-        <v>70</v>
-      </c>
-      <c r="G16">
-        <v>103</v>
-      </c>
-      <c r="H16">
-        <v>0.37</v>
-      </c>
-      <c r="I16">
-        <v>0.4</v>
-      </c>
-      <c r="J16">
-        <v>0.44</v>
-      </c>
-      <c r="K16">
-        <v>125</v>
-      </c>
-      <c r="L16">
-        <v>169</v>
-      </c>
-      <c r="M16">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="N16">
-        <v>0.82</v>
-      </c>
-      <c r="O16">
-        <v>0.91</v>
-      </c>
       <c r="P16">
         <v>180</v>
       </c>
@@ -1866,36 +1416,6 @@
       <c r="E17">
         <v>0.75</v>
       </c>
-      <c r="F17">
-        <v>71</v>
-      </c>
-      <c r="G17">
-        <v>104</v>
-      </c>
-      <c r="H17">
-        <v>0.88</v>
-      </c>
-      <c r="I17">
-        <v>0.23</v>
-      </c>
-      <c r="J17">
-        <v>0.85</v>
-      </c>
-      <c r="K17">
-        <v>126</v>
-      </c>
-      <c r="L17">
-        <v>170</v>
-      </c>
-      <c r="M17">
-        <v>0.77</v>
-      </c>
-      <c r="N17">
-        <v>0.85</v>
-      </c>
-      <c r="O17">
-        <v>0.95</v>
-      </c>
       <c r="P17">
         <v>181</v>
       </c>
@@ -1928,36 +1448,6 @@
       <c r="E18">
         <v>0.39</v>
       </c>
-      <c r="F18">
-        <v>72</v>
-      </c>
-      <c r="G18">
-        <v>105</v>
-      </c>
-      <c r="H18">
-        <v>0.54</v>
-      </c>
-      <c r="I18">
-        <v>0.97</v>
-      </c>
-      <c r="J18">
-        <v>0.8</v>
-      </c>
-      <c r="K18">
-        <v>127</v>
-      </c>
-      <c r="L18">
-        <v>171</v>
-      </c>
-      <c r="M18">
-        <v>0.69</v>
-      </c>
-      <c r="N18">
-        <v>0.46</v>
-      </c>
-      <c r="O18">
-        <v>0.48</v>
-      </c>
       <c r="P18">
         <v>182</v>
       </c>
@@ -1990,36 +1480,6 @@
       <c r="E19">
         <v>0.74</v>
       </c>
-      <c r="F19">
-        <v>73</v>
-      </c>
-      <c r="G19">
-        <v>106</v>
-      </c>
-      <c r="H19">
-        <v>0.82</v>
-      </c>
-      <c r="I19">
-        <v>0.9</v>
-      </c>
-      <c r="J19">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K19">
-        <v>128</v>
-      </c>
-      <c r="L19">
-        <v>172</v>
-      </c>
-      <c r="M19">
-        <v>0.45</v>
-      </c>
-      <c r="N19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O19">
-        <v>0.53</v>
-      </c>
       <c r="P19">
         <v>183</v>
       </c>
@@ -2052,36 +1512,6 @@
       <c r="E20">
         <v>0.75</v>
       </c>
-      <c r="F20">
-        <v>74</v>
-      </c>
-      <c r="G20">
-        <v>107</v>
-      </c>
-      <c r="H20">
-        <v>0.89</v>
-      </c>
-      <c r="I20">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J20">
-        <v>0.66</v>
-      </c>
-      <c r="K20">
-        <v>129</v>
-      </c>
-      <c r="L20">
-        <v>173</v>
-      </c>
-      <c r="M20">
-        <v>0.89</v>
-      </c>
-      <c r="N20">
-        <v>0.84</v>
-      </c>
-      <c r="O20">
-        <v>0.97</v>
-      </c>
       <c r="P20">
         <v>184</v>
       </c>
@@ -2114,36 +1544,6 @@
       <c r="E21">
         <v>0.78</v>
       </c>
-      <c r="F21">
-        <v>75</v>
-      </c>
-      <c r="G21">
-        <v>108</v>
-      </c>
-      <c r="H21">
-        <v>0.71</v>
-      </c>
-      <c r="I21">
-        <v>0.69</v>
-      </c>
-      <c r="J21">
-        <v>0.64</v>
-      </c>
-      <c r="K21">
-        <v>130</v>
-      </c>
-      <c r="L21">
-        <v>174</v>
-      </c>
-      <c r="M21">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="N21">
-        <v>1.03</v>
-      </c>
-      <c r="O21">
-        <v>1.17</v>
-      </c>
       <c r="P21">
         <v>185</v>
       </c>
@@ -2176,36 +1576,6 @@
       <c r="E22">
         <v>0.83</v>
       </c>
-      <c r="F22">
-        <v>76</v>
-      </c>
-      <c r="G22">
-        <v>110</v>
-      </c>
-      <c r="H22">
-        <v>0.9</v>
-      </c>
-      <c r="I22">
-        <v>0.83</v>
-      </c>
-      <c r="J22">
-        <v>0.88</v>
-      </c>
-      <c r="K22">
-        <v>131</v>
-      </c>
-      <c r="L22">
-        <v>175</v>
-      </c>
-      <c r="M22">
-        <v>0.69</v>
-      </c>
-      <c r="N22">
-        <v>0.62</v>
-      </c>
-      <c r="O22">
-        <v>0.71</v>
-      </c>
       <c r="P22">
         <v>186</v>
       </c>
@@ -2238,36 +1608,6 @@
       <c r="E23">
         <v>1.26</v>
       </c>
-      <c r="F23">
-        <v>77</v>
-      </c>
-      <c r="G23">
-        <v>111</v>
-      </c>
-      <c r="H23">
-        <v>0.9</v>
-      </c>
-      <c r="I23">
-        <v>0.85</v>
-      </c>
-      <c r="J23">
-        <v>0.76</v>
-      </c>
-      <c r="K23">
-        <v>132</v>
-      </c>
-      <c r="L23">
-        <v>176</v>
-      </c>
-      <c r="M23">
-        <v>0.75</v>
-      </c>
-      <c r="N23">
-        <v>0.73</v>
-      </c>
-      <c r="O23">
-        <v>0.68</v>
-      </c>
       <c r="P23">
         <v>187</v>
       </c>
@@ -2300,36 +1640,6 @@
       <c r="E24">
         <v>-0.05</v>
       </c>
-      <c r="F24">
-        <v>78</v>
-      </c>
-      <c r="G24">
-        <v>112</v>
-      </c>
-      <c r="H24">
-        <v>0.61</v>
-      </c>
-      <c r="I24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K24">
-        <v>133</v>
-      </c>
-      <c r="L24">
-        <v>178</v>
-      </c>
-      <c r="M24">
-        <v>0.38</v>
-      </c>
-      <c r="N24">
-        <v>0.68</v>
-      </c>
-      <c r="O24">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="P24">
         <v>188</v>
       </c>
@@ -2362,36 +1672,6 @@
       <c r="E25">
         <v>0.76</v>
       </c>
-      <c r="F25">
-        <v>79</v>
-      </c>
-      <c r="G25">
-        <v>113</v>
-      </c>
-      <c r="H25">
-        <v>0.35</v>
-      </c>
-      <c r="I25">
-        <v>0.51</v>
-      </c>
-      <c r="J25">
-        <v>0.78</v>
-      </c>
-      <c r="K25">
-        <v>134</v>
-      </c>
-      <c r="L25">
-        <v>179</v>
-      </c>
-      <c r="M25">
-        <v>2.34</v>
-      </c>
-      <c r="N25">
-        <v>0.83</v>
-      </c>
-      <c r="O25">
-        <v>0.78</v>
-      </c>
       <c r="P25">
         <v>189</v>
       </c>
@@ -2424,36 +1704,6 @@
       <c r="E26">
         <v>0.7</v>
       </c>
-      <c r="F26">
-        <v>80</v>
-      </c>
-      <c r="G26">
-        <v>114</v>
-      </c>
-      <c r="H26">
-        <v>0.5</v>
-      </c>
-      <c r="I26">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J26">
-        <v>0.67</v>
-      </c>
-      <c r="K26">
-        <v>135</v>
-      </c>
-      <c r="L26">
-        <v>180</v>
-      </c>
-      <c r="M26">
-        <v>0.8</v>
-      </c>
-      <c r="N26">
-        <v>0.64</v>
-      </c>
-      <c r="O26">
-        <v>0.84</v>
-      </c>
       <c r="P26">
         <v>190</v>
       </c>
@@ -2486,36 +1736,6 @@
       <c r="E27">
         <v>1.23</v>
       </c>
-      <c r="F27">
-        <v>81</v>
-      </c>
-      <c r="G27">
-        <v>115</v>
-      </c>
-      <c r="H27">
-        <v>0.74</v>
-      </c>
-      <c r="I27">
-        <v>0.06</v>
-      </c>
-      <c r="J27">
-        <v>1.03</v>
-      </c>
-      <c r="K27">
-        <v>136</v>
-      </c>
-      <c r="L27">
-        <v>182</v>
-      </c>
-      <c r="M27">
-        <v>0.72</v>
-      </c>
-      <c r="N27">
-        <v>0.93</v>
-      </c>
-      <c r="O27">
-        <v>0.9</v>
-      </c>
       <c r="P27">
         <v>191</v>
       </c>
@@ -2548,36 +1768,6 @@
       <c r="E28">
         <v>0.74</v>
       </c>
-      <c r="F28">
-        <v>82</v>
-      </c>
-      <c r="G28">
-        <v>116</v>
-      </c>
-      <c r="H28">
-        <v>0.78</v>
-      </c>
-      <c r="I28">
-        <v>0.86</v>
-      </c>
-      <c r="J28">
-        <v>0.93</v>
-      </c>
-      <c r="K28">
-        <v>137</v>
-      </c>
-      <c r="L28">
-        <v>183</v>
-      </c>
-      <c r="M28">
-        <v>0.35</v>
-      </c>
-      <c r="N28">
-        <v>0.25</v>
-      </c>
-      <c r="O28">
-        <v>0.36</v>
-      </c>
       <c r="P28">
         <v>192</v>
       </c>
@@ -2610,36 +1800,6 @@
       <c r="E29">
         <v>1.18</v>
       </c>
-      <c r="F29">
-        <v>83</v>
-      </c>
-      <c r="G29">
-        <v>119</v>
-      </c>
-      <c r="H29">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I29">
-        <v>0.59</v>
-      </c>
-      <c r="J29">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="K29">
-        <v>138</v>
-      </c>
-      <c r="L29">
-        <v>184</v>
-      </c>
-      <c r="M29">
-        <v>0.49</v>
-      </c>
-      <c r="N29">
-        <v>0.93</v>
-      </c>
-      <c r="O29">
-        <v>0.87</v>
-      </c>
       <c r="P29">
         <v>193</v>
       </c>
@@ -2672,36 +1832,6 @@
       <c r="E30">
         <v>0.94</v>
       </c>
-      <c r="F30">
-        <v>84</v>
-      </c>
-      <c r="G30">
-        <v>120</v>
-      </c>
-      <c r="H30">
-        <v>0.79</v>
-      </c>
-      <c r="I30">
-        <v>0.67</v>
-      </c>
-      <c r="J30">
-        <v>0.77</v>
-      </c>
-      <c r="K30">
-        <v>139</v>
-      </c>
-      <c r="L30">
-        <v>185</v>
-      </c>
-      <c r="M30">
-        <v>1.03</v>
-      </c>
-      <c r="N30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O30">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="P30">
         <v>194</v>
       </c>
@@ -2734,36 +1864,6 @@
       <c r="E31">
         <v>0.9</v>
       </c>
-      <c r="F31">
-        <v>85</v>
-      </c>
-      <c r="G31">
-        <v>122</v>
-      </c>
-      <c r="H31">
-        <v>0.93</v>
-      </c>
-      <c r="I31">
-        <v>0.87</v>
-      </c>
-      <c r="J31">
-        <v>0.5</v>
-      </c>
-      <c r="K31">
-        <v>140</v>
-      </c>
-      <c r="L31">
-        <v>186</v>
-      </c>
-      <c r="M31">
-        <v>0.73</v>
-      </c>
-      <c r="N31">
-        <v>0.69</v>
-      </c>
-      <c r="O31">
-        <v>0.99</v>
-      </c>
       <c r="P31">
         <v>195</v>
       </c>
@@ -2796,36 +1896,6 @@
       <c r="E32">
         <v>0.73</v>
       </c>
-      <c r="F32">
-        <v>86</v>
-      </c>
-      <c r="G32">
-        <v>123</v>
-      </c>
-      <c r="H32">
-        <v>0.89</v>
-      </c>
-      <c r="I32">
-        <v>0.97</v>
-      </c>
-      <c r="J32">
-        <v>1.3</v>
-      </c>
-      <c r="K32">
-        <v>141</v>
-      </c>
-      <c r="L32">
-        <v>188</v>
-      </c>
-      <c r="M32">
-        <v>0.85</v>
-      </c>
-      <c r="N32">
-        <v>1.78</v>
-      </c>
-      <c r="O32">
-        <v>0.71</v>
-      </c>
       <c r="P32">
         <v>196</v>
       </c>
@@ -2858,36 +1928,6 @@
       <c r="E33">
         <v>0.53</v>
       </c>
-      <c r="F33">
-        <v>87</v>
-      </c>
-      <c r="G33">
-        <v>124</v>
-      </c>
-      <c r="H33">
-        <v>0.93</v>
-      </c>
-      <c r="I33">
-        <v>1.23</v>
-      </c>
-      <c r="J33">
-        <v>1.19</v>
-      </c>
-      <c r="K33">
-        <v>142</v>
-      </c>
-      <c r="L33">
-        <v>189</v>
-      </c>
-      <c r="M33">
-        <v>0.9</v>
-      </c>
-      <c r="N33">
-        <v>0.68</v>
-      </c>
-      <c r="O33">
-        <v>0.92</v>
-      </c>
       <c r="P33">
         <v>197</v>
       </c>
@@ -2920,36 +1960,6 @@
       <c r="E34">
         <v>0.67</v>
       </c>
-      <c r="F34">
-        <v>88</v>
-      </c>
-      <c r="G34">
-        <v>125</v>
-      </c>
-      <c r="H34">
-        <v>0.84</v>
-      </c>
-      <c r="I34">
-        <v>-0.47</v>
-      </c>
-      <c r="J34">
-        <v>0.86</v>
-      </c>
-      <c r="K34">
-        <v>143</v>
-      </c>
-      <c r="L34">
-        <v>190</v>
-      </c>
-      <c r="M34">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N34">
-        <v>0.8</v>
-      </c>
-      <c r="O34">
-        <v>0.99</v>
-      </c>
       <c r="P34">
         <v>198</v>
       </c>
@@ -2982,36 +1992,6 @@
       <c r="E35">
         <v>0.73</v>
       </c>
-      <c r="F35">
-        <v>89</v>
-      </c>
-      <c r="G35">
-        <v>126</v>
-      </c>
-      <c r="H35">
-        <v>0.44</v>
-      </c>
-      <c r="I35">
-        <v>-0.01</v>
-      </c>
-      <c r="J35">
-        <v>0.54</v>
-      </c>
-      <c r="K35">
-        <v>144</v>
-      </c>
-      <c r="L35">
-        <v>191</v>
-      </c>
-      <c r="M35">
-        <v>1.23</v>
-      </c>
-      <c r="N35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.85</v>
-      </c>
       <c r="P35">
         <v>199</v>
       </c>
@@ -3044,36 +2024,6 @@
       <c r="E36">
         <v>0.63</v>
       </c>
-      <c r="F36">
-        <v>90</v>
-      </c>
-      <c r="G36">
-        <v>127</v>
-      </c>
-      <c r="H36">
-        <v>0.53</v>
-      </c>
-      <c r="I36">
-        <v>0.83</v>
-      </c>
-      <c r="J36">
-        <v>0.75</v>
-      </c>
-      <c r="K36">
-        <v>145</v>
-      </c>
-      <c r="L36">
-        <v>192</v>
-      </c>
-      <c r="M36">
-        <v>0.85</v>
-      </c>
-      <c r="N36">
-        <v>0.87</v>
-      </c>
-      <c r="O36">
-        <v>0.8</v>
-      </c>
       <c r="P36">
         <v>200</v>
       </c>
@@ -3106,36 +2056,6 @@
       <c r="E37">
         <v>0.73</v>
       </c>
-      <c r="F37">
-        <v>91</v>
-      </c>
-      <c r="G37">
-        <v>128</v>
-      </c>
-      <c r="H37">
-        <v>0.87</v>
-      </c>
-      <c r="I37">
-        <v>0.86</v>
-      </c>
-      <c r="J37">
-        <v>0.9</v>
-      </c>
-      <c r="K37">
-        <v>146</v>
-      </c>
-      <c r="L37">
-        <v>193</v>
-      </c>
-      <c r="M37">
-        <v>0.76</v>
-      </c>
-      <c r="N37">
-        <v>0.53</v>
-      </c>
-      <c r="O37">
-        <v>0.63</v>
-      </c>
       <c r="P37">
         <v>201</v>
       </c>
@@ -3168,36 +2088,6 @@
       <c r="E38">
         <v>0.49</v>
       </c>
-      <c r="F38">
-        <v>92</v>
-      </c>
-      <c r="G38">
-        <v>130</v>
-      </c>
-      <c r="H38">
-        <v>0.91</v>
-      </c>
-      <c r="I38">
-        <v>0.97</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>147</v>
-      </c>
-      <c r="L38">
-        <v>195</v>
-      </c>
-      <c r="M38">
-        <v>0.91</v>
-      </c>
-      <c r="N38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O38">
-        <v>0.49</v>
-      </c>
       <c r="P38">
         <v>202</v>
       </c>
@@ -3230,36 +2120,6 @@
       <c r="E39">
         <v>0.93</v>
       </c>
-      <c r="F39">
-        <v>93</v>
-      </c>
-      <c r="G39">
-        <v>131</v>
-      </c>
-      <c r="H39">
-        <v>0.86</v>
-      </c>
-      <c r="I39">
-        <v>0.85</v>
-      </c>
-      <c r="J39">
-        <v>0.75</v>
-      </c>
-      <c r="K39">
-        <v>148</v>
-      </c>
-      <c r="L39">
-        <v>196</v>
-      </c>
-      <c r="M39">
-        <v>0.88</v>
-      </c>
-      <c r="N39">
-        <v>0.74</v>
-      </c>
-      <c r="O39">
-        <v>0.68</v>
-      </c>
       <c r="P39">
         <v>203</v>
       </c>
@@ -3292,36 +2152,6 @@
       <c r="E40">
         <v>0.9</v>
       </c>
-      <c r="F40">
-        <v>94</v>
-      </c>
-      <c r="G40">
-        <v>134</v>
-      </c>
-      <c r="H40">
-        <v>0.71</v>
-      </c>
-      <c r="I40">
-        <v>0.21</v>
-      </c>
-      <c r="J40">
-        <v>0.86</v>
-      </c>
-      <c r="K40">
-        <v>149</v>
-      </c>
-      <c r="L40">
-        <v>197</v>
-      </c>
-      <c r="M40">
-        <v>0.9</v>
-      </c>
-      <c r="N40">
-        <v>1.06</v>
-      </c>
-      <c r="O40">
-        <v>1.33</v>
-      </c>
       <c r="P40">
         <v>204</v>
       </c>
@@ -3354,36 +2184,6 @@
       <c r="E41">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F41">
-        <v>95</v>
-      </c>
-      <c r="G41">
-        <v>135</v>
-      </c>
-      <c r="H41">
-        <v>0.68</v>
-      </c>
-      <c r="I41">
-        <v>0.72</v>
-      </c>
-      <c r="J41">
-        <v>0.67</v>
-      </c>
-      <c r="K41">
-        <v>150</v>
-      </c>
-      <c r="L41">
-        <v>198</v>
-      </c>
-      <c r="M41">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="N41">
-        <v>1.07</v>
-      </c>
-      <c r="O41">
-        <v>1.02</v>
-      </c>
       <c r="P41">
         <v>205</v>
       </c>
@@ -3416,36 +2216,6 @@
       <c r="E42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F42">
-        <v>96</v>
-      </c>
-      <c r="G42">
-        <v>136</v>
-      </c>
-      <c r="H42">
-        <v>1.73</v>
-      </c>
-      <c r="I42">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J42">
-        <v>0.8</v>
-      </c>
-      <c r="K42">
-        <v>151</v>
-      </c>
-      <c r="L42">
-        <v>199</v>
-      </c>
-      <c r="M42">
-        <v>0.81</v>
-      </c>
-      <c r="N42">
-        <v>0.96</v>
-      </c>
-      <c r="O42">
-        <v>0.83</v>
-      </c>
       <c r="P42">
         <v>206</v>
       </c>
@@ -3478,36 +2248,6 @@
       <c r="E43">
         <v>0.47</v>
       </c>
-      <c r="F43">
-        <v>97</v>
-      </c>
-      <c r="G43">
-        <v>137</v>
-      </c>
-      <c r="H43">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I43">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J43">
-        <v>0.79</v>
-      </c>
-      <c r="K43">
-        <v>152</v>
-      </c>
-      <c r="L43">
-        <v>200</v>
-      </c>
-      <c r="M43">
-        <v>0.3</v>
-      </c>
-      <c r="N43">
-        <v>0.86</v>
-      </c>
-      <c r="O43">
-        <v>1.02</v>
-      </c>
       <c r="P43">
         <v>207</v>
       </c>
@@ -3540,36 +2280,6 @@
       <c r="E44">
         <v>0.65</v>
       </c>
-      <c r="F44">
-        <v>98</v>
-      </c>
-      <c r="G44">
-        <v>138</v>
-      </c>
-      <c r="H44">
-        <v>0.74</v>
-      </c>
-      <c r="I44">
-        <v>0.48</v>
-      </c>
-      <c r="J44">
-        <v>0.59</v>
-      </c>
-      <c r="K44">
-        <v>153</v>
-      </c>
-      <c r="L44">
-        <v>201</v>
-      </c>
-      <c r="M44">
-        <v>0.68</v>
-      </c>
-      <c r="N44">
-        <v>0.69</v>
-      </c>
-      <c r="O44">
-        <v>0.8</v>
-      </c>
       <c r="P44">
         <v>208</v>
       </c>
@@ -3602,36 +2312,6 @@
       <c r="E45">
         <v>0.75</v>
       </c>
-      <c r="F45">
-        <v>99</v>
-      </c>
-      <c r="G45">
-        <v>139</v>
-      </c>
-      <c r="H45">
-        <v>1.35</v>
-      </c>
-      <c r="I45">
-        <v>0.69</v>
-      </c>
-      <c r="J45">
-        <v>0.63</v>
-      </c>
-      <c r="K45">
-        <v>154</v>
-      </c>
-      <c r="L45">
-        <v>203</v>
-      </c>
-      <c r="M45">
-        <v>0.92</v>
-      </c>
-      <c r="N45">
-        <v>1.05</v>
-      </c>
-      <c r="O45">
-        <v>0.86</v>
-      </c>
       <c r="P45">
         <v>209</v>
       </c>
@@ -3664,36 +2344,6 @@
       <c r="E46">
         <v>0.51</v>
       </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <v>140</v>
-      </c>
-      <c r="H46">
-        <v>0.41</v>
-      </c>
-      <c r="I46">
-        <v>0.85</v>
-      </c>
-      <c r="J46">
-        <v>0.71</v>
-      </c>
-      <c r="K46">
-        <v>155</v>
-      </c>
-      <c r="L46">
-        <v>205</v>
-      </c>
-      <c r="M46">
-        <v>0.91</v>
-      </c>
-      <c r="N46">
-        <v>0.82</v>
-      </c>
-      <c r="O46">
-        <v>0.77</v>
-      </c>
       <c r="P46">
         <v>210</v>
       </c>
@@ -3726,36 +2376,6 @@
       <c r="E47">
         <v>0.93</v>
       </c>
-      <c r="F47">
-        <v>101</v>
-      </c>
-      <c r="G47">
-        <v>141</v>
-      </c>
-      <c r="H47">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I47">
-        <v>0.96</v>
-      </c>
-      <c r="J47">
-        <v>0.86</v>
-      </c>
-      <c r="K47">
-        <v>156</v>
-      </c>
-      <c r="L47">
-        <v>206</v>
-      </c>
-      <c r="M47">
-        <v>0.69</v>
-      </c>
-      <c r="N47">
-        <v>0.84</v>
-      </c>
-      <c r="O47">
-        <v>0.67</v>
-      </c>
       <c r="P47">
         <v>211</v>
       </c>
@@ -3788,36 +2408,6 @@
       <c r="E48">
         <v>0.69</v>
       </c>
-      <c r="F48">
-        <v>102</v>
-      </c>
-      <c r="G48">
-        <v>142</v>
-      </c>
-      <c r="H48">
-        <v>0.8</v>
-      </c>
-      <c r="I48">
-        <v>0.82</v>
-      </c>
-      <c r="J48">
-        <v>0.83</v>
-      </c>
-      <c r="K48">
-        <v>157</v>
-      </c>
-      <c r="L48">
-        <v>207</v>
-      </c>
-      <c r="M48">
-        <v>0.75</v>
-      </c>
-      <c r="N48">
-        <v>0.7</v>
-      </c>
-      <c r="O48">
-        <v>0.2</v>
-      </c>
       <c r="P48">
         <v>212</v>
       </c>
@@ -3850,36 +2440,6 @@
       <c r="E49">
         <v>0.92</v>
       </c>
-      <c r="F49">
-        <v>103</v>
-      </c>
-      <c r="G49">
-        <v>144</v>
-      </c>
-      <c r="H49">
-        <v>0.76</v>
-      </c>
-      <c r="I49">
-        <v>0.66</v>
-      </c>
-      <c r="J49">
-        <v>-0.01</v>
-      </c>
-      <c r="K49">
-        <v>158</v>
-      </c>
-      <c r="L49">
-        <v>208</v>
-      </c>
-      <c r="M49">
-        <v>1.47</v>
-      </c>
-      <c r="N49">
-        <v>0.95</v>
-      </c>
-      <c r="O49">
-        <v>0.92</v>
-      </c>
       <c r="P49">
         <v>213</v>
       </c>
@@ -3912,36 +2472,6 @@
       <c r="E50">
         <v>0.39</v>
       </c>
-      <c r="F50">
-        <v>104</v>
-      </c>
-      <c r="G50">
-        <v>145</v>
-      </c>
-      <c r="H50">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K50">
-        <v>159</v>
-      </c>
-      <c r="L50">
-        <v>209</v>
-      </c>
-      <c r="M50">
-        <v>0.76</v>
-      </c>
-      <c r="N50">
-        <v>0.67</v>
-      </c>
-      <c r="O50">
-        <v>0.7</v>
-      </c>
       <c r="P50">
         <v>214</v>
       </c>
@@ -3974,36 +2504,6 @@
       <c r="E51">
         <v>0.72</v>
       </c>
-      <c r="F51">
-        <v>105</v>
-      </c>
-      <c r="G51">
-        <v>146</v>
-      </c>
-      <c r="H51">
-        <v>0.84</v>
-      </c>
-      <c r="I51">
-        <v>0.84</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>160</v>
-      </c>
-      <c r="L51">
-        <v>210</v>
-      </c>
-      <c r="M51">
-        <v>0.72</v>
-      </c>
-      <c r="N51">
-        <v>0.71</v>
-      </c>
-      <c r="O51">
-        <v>0.78</v>
-      </c>
       <c r="P51">
         <v>215</v>
       </c>
@@ -4036,36 +2536,6 @@
       <c r="E52">
         <v>0.94</v>
       </c>
-      <c r="F52">
-        <v>106</v>
-      </c>
-      <c r="G52">
-        <v>148</v>
-      </c>
-      <c r="H52">
-        <v>1.03</v>
-      </c>
-      <c r="I52">
-        <v>1.03</v>
-      </c>
-      <c r="J52">
-        <v>1.06</v>
-      </c>
-      <c r="K52">
-        <v>161</v>
-      </c>
-      <c r="L52">
-        <v>211</v>
-      </c>
-      <c r="M52">
-        <v>1.4</v>
-      </c>
-      <c r="N52">
-        <v>0.73</v>
-      </c>
-      <c r="O52">
-        <v>0.89</v>
-      </c>
       <c r="P52">
         <v>216</v>
       </c>
@@ -4098,36 +2568,6 @@
       <c r="E53">
         <v>0.99</v>
       </c>
-      <c r="F53">
-        <v>107</v>
-      </c>
-      <c r="G53">
-        <v>149</v>
-      </c>
-      <c r="H53">
-        <v>0.52</v>
-      </c>
-      <c r="I53">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J53">
-        <v>0.49</v>
-      </c>
-      <c r="K53">
-        <v>162</v>
-      </c>
-      <c r="L53">
-        <v>212</v>
-      </c>
-      <c r="M53">
-        <v>0.74</v>
-      </c>
-      <c r="N53">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O53">
-        <v>0.59</v>
-      </c>
       <c r="P53">
         <v>217</v>
       </c>
@@ -4160,36 +2600,6 @@
       <c r="E54">
         <v>0.79</v>
       </c>
-      <c r="F54">
-        <v>108</v>
-      </c>
-      <c r="G54">
-        <v>150</v>
-      </c>
-      <c r="H54">
-        <v>0.75</v>
-      </c>
-      <c r="I54">
-        <v>0.66</v>
-      </c>
-      <c r="J54">
-        <v>0.49</v>
-      </c>
-      <c r="K54">
-        <v>163</v>
-      </c>
-      <c r="L54">
-        <v>213</v>
-      </c>
-      <c r="M54">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N54">
-        <v>0.91</v>
-      </c>
-      <c r="O54">
-        <v>0.67</v>
-      </c>
       <c r="P54">
         <v>218</v>
       </c>
@@ -4222,36 +2632,6 @@
       <c r="E55">
         <v>0.65</v>
       </c>
-      <c r="F55">
-        <v>109</v>
-      </c>
-      <c r="G55">
-        <v>151</v>
-      </c>
-      <c r="H55">
-        <v>0.81</v>
-      </c>
-      <c r="I55">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J55">
-        <v>0.85</v>
-      </c>
-      <c r="K55">
-        <v>164</v>
-      </c>
-      <c r="L55">
-        <v>214</v>
-      </c>
-      <c r="M55">
-        <v>0.46</v>
-      </c>
-      <c r="N55">
-        <v>0.72</v>
-      </c>
-      <c r="O55">
-        <v>0.24</v>
-      </c>
       <c r="P55">
         <v>219</v>
       </c>
@@ -4284,34 +2664,2792 @@
       <c r="E56">
         <v>0.63</v>
       </c>
-      <c r="F56">
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>86</v>
+      </c>
+      <c r="C57">
+        <v>0.66</v>
+      </c>
+      <c r="D57">
+        <v>0.7</v>
+      </c>
+      <c r="E57">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>87</v>
+      </c>
+      <c r="C58">
+        <v>0.97</v>
+      </c>
+      <c r="D58">
+        <v>0.96</v>
+      </c>
+      <c r="E58">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>88</v>
+      </c>
+      <c r="C59">
+        <v>0.81</v>
+      </c>
+      <c r="D59">
+        <v>0.52</v>
+      </c>
+      <c r="E59">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>89</v>
+      </c>
+      <c r="C60">
+        <v>0.39</v>
+      </c>
+      <c r="D60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E60">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>90</v>
+      </c>
+      <c r="C61">
+        <v>0.87</v>
+      </c>
+      <c r="D61">
+        <v>0.97</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>91</v>
+      </c>
+      <c r="C62">
+        <v>1.05</v>
+      </c>
+      <c r="D62">
+        <v>0.77</v>
+      </c>
+      <c r="E62">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>92</v>
+      </c>
+      <c r="C63">
+        <v>0.9</v>
+      </c>
+      <c r="D63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E63">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>93</v>
+      </c>
+      <c r="C64">
+        <v>0.97</v>
+      </c>
+      <c r="D64">
+        <v>0.99</v>
+      </c>
+      <c r="E64">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>95</v>
+      </c>
+      <c r="C65">
+        <v>1.31</v>
+      </c>
+      <c r="D65">
+        <v>0.89</v>
+      </c>
+      <c r="E65">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>96</v>
+      </c>
+      <c r="C66">
+        <v>0.75</v>
+      </c>
+      <c r="D66">
+        <v>0.89</v>
+      </c>
+      <c r="E66">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>97</v>
+      </c>
+      <c r="C67">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D67">
+        <v>0.42</v>
+      </c>
+      <c r="E67">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>98</v>
+      </c>
+      <c r="C68">
+        <v>0.88</v>
+      </c>
+      <c r="D68">
+        <v>0.98</v>
+      </c>
+      <c r="E68">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>99</v>
+      </c>
+      <c r="C69">
+        <v>0.88</v>
+      </c>
+      <c r="D69">
+        <v>0.72</v>
+      </c>
+      <c r="E69">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D70">
+        <v>0.66</v>
+      </c>
+      <c r="E70">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>103</v>
+      </c>
+      <c r="C71">
+        <v>0.37</v>
+      </c>
+      <c r="D71">
+        <v>0.4</v>
+      </c>
+      <c r="E71">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>104</v>
+      </c>
+      <c r="C72">
+        <v>0.88</v>
+      </c>
+      <c r="D72">
+        <v>0.23</v>
+      </c>
+      <c r="E72">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>105</v>
+      </c>
+      <c r="C73">
+        <v>0.54</v>
+      </c>
+      <c r="D73">
+        <v>0.97</v>
+      </c>
+      <c r="E73">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>106</v>
+      </c>
+      <c r="C74">
+        <v>0.82</v>
+      </c>
+      <c r="D74">
+        <v>0.9</v>
+      </c>
+      <c r="E74">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>107</v>
+      </c>
+      <c r="C75">
+        <v>0.89</v>
+      </c>
+      <c r="D75">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E75">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>108</v>
+      </c>
+      <c r="C76">
+        <v>0.71</v>
+      </c>
+      <c r="D76">
+        <v>0.69</v>
+      </c>
+      <c r="E76">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>110</v>
       </c>
-      <c r="G56">
+      <c r="C77">
+        <v>0.9</v>
+      </c>
+      <c r="D77">
+        <v>0.83</v>
+      </c>
+      <c r="E77">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>111</v>
+      </c>
+      <c r="C78">
+        <v>0.9</v>
+      </c>
+      <c r="D78">
+        <v>0.85</v>
+      </c>
+      <c r="E78">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>112</v>
+      </c>
+      <c r="C79">
+        <v>0.61</v>
+      </c>
+      <c r="D79">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E79">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>113</v>
+      </c>
+      <c r="C80">
+        <v>0.35</v>
+      </c>
+      <c r="D80">
+        <v>0.51</v>
+      </c>
+      <c r="E80">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>114</v>
+      </c>
+      <c r="C81">
+        <v>0.5</v>
+      </c>
+      <c r="D81">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E81">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>115</v>
+      </c>
+      <c r="C82">
+        <v>0.74</v>
+      </c>
+      <c r="D82">
+        <v>0.06</v>
+      </c>
+      <c r="E82">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>116</v>
+      </c>
+      <c r="C83">
+        <v>0.78</v>
+      </c>
+      <c r="D83">
+        <v>0.86</v>
+      </c>
+      <c r="E83">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>119</v>
+      </c>
+      <c r="C84">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D84">
+        <v>0.59</v>
+      </c>
+      <c r="E84">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>120</v>
+      </c>
+      <c r="C85">
+        <v>0.79</v>
+      </c>
+      <c r="D85">
+        <v>0.67</v>
+      </c>
+      <c r="E85">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>122</v>
+      </c>
+      <c r="C86">
+        <v>0.93</v>
+      </c>
+      <c r="D86">
+        <v>0.87</v>
+      </c>
+      <c r="E86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>123</v>
+      </c>
+      <c r="C87">
+        <v>0.89</v>
+      </c>
+      <c r="D87">
+        <v>0.97</v>
+      </c>
+      <c r="E87">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>124</v>
+      </c>
+      <c r="C88">
+        <v>0.93</v>
+      </c>
+      <c r="D88">
+        <v>1.23</v>
+      </c>
+      <c r="E88">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>125</v>
+      </c>
+      <c r="C89">
+        <v>0.84</v>
+      </c>
+      <c r="D89">
+        <v>-0.47</v>
+      </c>
+      <c r="E89">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>126</v>
+      </c>
+      <c r="C90">
+        <v>0.44</v>
+      </c>
+      <c r="D90">
+        <v>-0.01</v>
+      </c>
+      <c r="E90">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>127</v>
+      </c>
+      <c r="C91">
+        <v>0.53</v>
+      </c>
+      <c r="D91">
+        <v>0.83</v>
+      </c>
+      <c r="E91">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>128</v>
+      </c>
+      <c r="C92">
+        <v>0.87</v>
+      </c>
+      <c r="D92">
+        <v>0.86</v>
+      </c>
+      <c r="E92">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>130</v>
+      </c>
+      <c r="C93">
+        <v>0.91</v>
+      </c>
+      <c r="D93">
+        <v>0.97</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>131</v>
+      </c>
+      <c r="C94">
+        <v>0.86</v>
+      </c>
+      <c r="D94">
+        <v>0.85</v>
+      </c>
+      <c r="E94">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>134</v>
+      </c>
+      <c r="C95">
+        <v>0.71</v>
+      </c>
+      <c r="D95">
+        <v>0.21</v>
+      </c>
+      <c r="E95">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>135</v>
+      </c>
+      <c r="C96">
+        <v>0.68</v>
+      </c>
+      <c r="D96">
+        <v>0.72</v>
+      </c>
+      <c r="E96">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>136</v>
+      </c>
+      <c r="C97">
+        <v>1.73</v>
+      </c>
+      <c r="D97">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E97">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>137</v>
+      </c>
+      <c r="C98">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D98">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E98">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>138</v>
+      </c>
+      <c r="C99">
+        <v>0.74</v>
+      </c>
+      <c r="D99">
+        <v>0.48</v>
+      </c>
+      <c r="E99">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>139</v>
+      </c>
+      <c r="C100">
+        <v>1.35</v>
+      </c>
+      <c r="D100">
+        <v>0.69</v>
+      </c>
+      <c r="E100">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>140</v>
+      </c>
+      <c r="C101">
+        <v>0.41</v>
+      </c>
+      <c r="D101">
+        <v>0.85</v>
+      </c>
+      <c r="E101">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>141</v>
+      </c>
+      <c r="C102">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D102">
+        <v>0.96</v>
+      </c>
+      <c r="E102">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>142</v>
+      </c>
+      <c r="C103">
+        <v>0.8</v>
+      </c>
+      <c r="D103">
+        <v>0.82</v>
+      </c>
+      <c r="E103">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>144</v>
+      </c>
+      <c r="C104">
+        <v>0.76</v>
+      </c>
+      <c r="D104">
+        <v>0.66</v>
+      </c>
+      <c r="E104">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>145</v>
+      </c>
+      <c r="C105">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D105">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E105">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>146</v>
+      </c>
+      <c r="C106">
+        <v>0.84</v>
+      </c>
+      <c r="D106">
+        <v>0.84</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>148</v>
+      </c>
+      <c r="C107">
+        <v>1.03</v>
+      </c>
+      <c r="D107">
+        <v>1.03</v>
+      </c>
+      <c r="E107">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>149</v>
+      </c>
+      <c r="C108">
+        <v>0.52</v>
+      </c>
+      <c r="D108">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E108">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>150</v>
+      </c>
+      <c r="C109">
+        <v>0.75</v>
+      </c>
+      <c r="D109">
+        <v>0.66</v>
+      </c>
+      <c r="E109">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>151</v>
+      </c>
+      <c r="C110">
+        <v>0.81</v>
+      </c>
+      <c r="D110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E110">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
         <v>152</v>
       </c>
-      <c r="H56">
+      <c r="C111">
         <v>1.05</v>
       </c>
-      <c r="I56">
+      <c r="D111">
         <v>0.9</v>
       </c>
-      <c r="J56">
+      <c r="E111">
         <v>1.22</v>
       </c>
-      <c r="K56">
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>153</v>
+      </c>
+      <c r="C112">
+        <v>0.93</v>
+      </c>
+      <c r="D112">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E112">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>154</v>
+      </c>
+      <c r="C113">
+        <v>0.82</v>
+      </c>
+      <c r="D113">
+        <v>0.7</v>
+      </c>
+      <c r="E113">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>155</v>
+      </c>
+      <c r="C114">
+        <v>0.75</v>
+      </c>
+      <c r="D114">
+        <v>0.94</v>
+      </c>
+      <c r="E114">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>156</v>
+      </c>
+      <c r="C115">
+        <v>0.75</v>
+      </c>
+      <c r="D115">
+        <v>0.76</v>
+      </c>
+      <c r="E115">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>157</v>
+      </c>
+      <c r="C116">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D116">
+        <v>0.68</v>
+      </c>
+      <c r="E116">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>158</v>
+      </c>
+      <c r="C117">
+        <v>0.66</v>
+      </c>
+      <c r="D117">
+        <v>0.86</v>
+      </c>
+      <c r="E117">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>160</v>
+      </c>
+      <c r="C118">
+        <v>0.54</v>
+      </c>
+      <c r="D118">
+        <v>0.66</v>
+      </c>
+      <c r="E118">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>161</v>
+      </c>
+      <c r="C119">
+        <v>0.89</v>
+      </c>
+      <c r="D119">
+        <v>0.83</v>
+      </c>
+      <c r="E119">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>162</v>
+      </c>
+      <c r="C120">
+        <v>1.07</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>163</v>
+      </c>
+      <c r="C121">
+        <v>0.79</v>
+      </c>
+      <c r="D121">
+        <v>0.42</v>
+      </c>
+      <c r="E121">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>164</v>
+      </c>
+      <c r="C122">
+        <v>0.94</v>
+      </c>
+      <c r="D122">
+        <v>0.85</v>
+      </c>
+      <c r="E122">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
         <v>165</v>
       </c>
-      <c r="L56">
+      <c r="C123">
+        <v>1.07</v>
+      </c>
+      <c r="D123">
+        <v>0.96</v>
+      </c>
+      <c r="E123">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>166</v>
+      </c>
+      <c r="C124">
+        <v>0.71</v>
+      </c>
+      <c r="D124">
+        <v>0.93</v>
+      </c>
+      <c r="E124">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>167</v>
+      </c>
+      <c r="C125">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D125">
+        <v>0.76</v>
+      </c>
+      <c r="E125">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>169</v>
+      </c>
+      <c r="C126">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D126">
+        <v>0.82</v>
+      </c>
+      <c r="E126">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>170</v>
+      </c>
+      <c r="C127">
+        <v>0.77</v>
+      </c>
+      <c r="D127">
+        <v>0.85</v>
+      </c>
+      <c r="E127">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>171</v>
+      </c>
+      <c r="C128">
+        <v>0.69</v>
+      </c>
+      <c r="D128">
+        <v>0.46</v>
+      </c>
+      <c r="E128">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>172</v>
+      </c>
+      <c r="C129">
+        <v>0.45</v>
+      </c>
+      <c r="D129">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E129">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>173</v>
+      </c>
+      <c r="C130">
+        <v>0.89</v>
+      </c>
+      <c r="D130">
+        <v>0.84</v>
+      </c>
+      <c r="E130">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>174</v>
+      </c>
+      <c r="C131">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D131">
+        <v>1.03</v>
+      </c>
+      <c r="E131">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>175</v>
+      </c>
+      <c r="C132">
+        <v>0.69</v>
+      </c>
+      <c r="D132">
+        <v>0.62</v>
+      </c>
+      <c r="E132">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>176</v>
+      </c>
+      <c r="C133">
+        <v>0.75</v>
+      </c>
+      <c r="D133">
+        <v>0.73</v>
+      </c>
+      <c r="E133">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>178</v>
+      </c>
+      <c r="C134">
+        <v>0.38</v>
+      </c>
+      <c r="D134">
+        <v>0.68</v>
+      </c>
+      <c r="E134">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>179</v>
+      </c>
+      <c r="C135">
+        <v>2.34</v>
+      </c>
+      <c r="D135">
+        <v>0.83</v>
+      </c>
+      <c r="E135">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>180</v>
+      </c>
+      <c r="C136">
+        <v>0.8</v>
+      </c>
+      <c r="D136">
+        <v>0.64</v>
+      </c>
+      <c r="E136">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>182</v>
+      </c>
+      <c r="C137">
+        <v>0.72</v>
+      </c>
+      <c r="D137">
+        <v>0.93</v>
+      </c>
+      <c r="E137">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>183</v>
+      </c>
+      <c r="C138">
+        <v>0.35</v>
+      </c>
+      <c r="D138">
+        <v>0.25</v>
+      </c>
+      <c r="E138">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>184</v>
+      </c>
+      <c r="C139">
+        <v>0.49</v>
+      </c>
+      <c r="D139">
+        <v>0.93</v>
+      </c>
+      <c r="E139">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>185</v>
+      </c>
+      <c r="C140">
+        <v>1.03</v>
+      </c>
+      <c r="D140">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E140">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>186</v>
+      </c>
+      <c r="C141">
+        <v>0.73</v>
+      </c>
+      <c r="D141">
+        <v>0.69</v>
+      </c>
+      <c r="E141">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>188</v>
+      </c>
+      <c r="C142">
+        <v>0.85</v>
+      </c>
+      <c r="D142">
+        <v>1.78</v>
+      </c>
+      <c r="E142">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>189</v>
+      </c>
+      <c r="C143">
+        <v>0.9</v>
+      </c>
+      <c r="D143">
+        <v>0.68</v>
+      </c>
+      <c r="E143">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>190</v>
+      </c>
+      <c r="C144">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D144">
+        <v>0.8</v>
+      </c>
+      <c r="E144">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>191</v>
+      </c>
+      <c r="C145">
+        <v>1.23</v>
+      </c>
+      <c r="D145">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E145">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>192</v>
+      </c>
+      <c r="C146">
+        <v>0.85</v>
+      </c>
+      <c r="D146">
+        <v>0.87</v>
+      </c>
+      <c r="E146">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>193</v>
+      </c>
+      <c r="C147">
+        <v>0.76</v>
+      </c>
+      <c r="D147">
+        <v>0.53</v>
+      </c>
+      <c r="E147">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>195</v>
+      </c>
+      <c r="C148">
+        <v>0.91</v>
+      </c>
+      <c r="D148">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E148">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>196</v>
+      </c>
+      <c r="C149">
+        <v>0.88</v>
+      </c>
+      <c r="D149">
+        <v>0.74</v>
+      </c>
+      <c r="E149">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>197</v>
+      </c>
+      <c r="C150">
+        <v>0.9</v>
+      </c>
+      <c r="D150">
+        <v>1.06</v>
+      </c>
+      <c r="E150">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>198</v>
+      </c>
+      <c r="C151">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D151">
+        <v>1.07</v>
+      </c>
+      <c r="E151">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>199</v>
+      </c>
+      <c r="C152">
+        <v>0.81</v>
+      </c>
+      <c r="D152">
+        <v>0.96</v>
+      </c>
+      <c r="E152">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>200</v>
+      </c>
+      <c r="C153">
+        <v>0.3</v>
+      </c>
+      <c r="D153">
+        <v>0.86</v>
+      </c>
+      <c r="E153">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>201</v>
+      </c>
+      <c r="C154">
+        <v>0.68</v>
+      </c>
+      <c r="D154">
+        <v>0.69</v>
+      </c>
+      <c r="E154">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>203</v>
+      </c>
+      <c r="C155">
+        <v>0.92</v>
+      </c>
+      <c r="D155">
+        <v>1.05</v>
+      </c>
+      <c r="E155">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>205</v>
+      </c>
+      <c r="C156">
+        <v>0.91</v>
+      </c>
+      <c r="D156">
+        <v>0.82</v>
+      </c>
+      <c r="E156">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>206</v>
+      </c>
+      <c r="C157">
+        <v>0.69</v>
+      </c>
+      <c r="D157">
+        <v>0.84</v>
+      </c>
+      <c r="E157">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>207</v>
+      </c>
+      <c r="C158">
+        <v>0.75</v>
+      </c>
+      <c r="D158">
+        <v>0.7</v>
+      </c>
+      <c r="E158">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>208</v>
+      </c>
+      <c r="C159">
+        <v>1.47</v>
+      </c>
+      <c r="D159">
+        <v>0.95</v>
+      </c>
+      <c r="E159">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>209</v>
+      </c>
+      <c r="C160">
+        <v>0.76</v>
+      </c>
+      <c r="D160">
+        <v>0.67</v>
+      </c>
+      <c r="E160">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>210</v>
+      </c>
+      <c r="C161">
+        <v>0.72</v>
+      </c>
+      <c r="D161">
+        <v>0.71</v>
+      </c>
+      <c r="E161">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>211</v>
+      </c>
+      <c r="C162">
+        <v>1.4</v>
+      </c>
+      <c r="D162">
+        <v>0.73</v>
+      </c>
+      <c r="E162">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>212</v>
+      </c>
+      <c r="C163">
+        <v>0.74</v>
+      </c>
+      <c r="D163">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E163">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>213</v>
+      </c>
+      <c r="C164">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D164">
+        <v>0.91</v>
+      </c>
+      <c r="E164">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>214</v>
+      </c>
+      <c r="C165">
+        <v>0.46</v>
+      </c>
+      <c r="D165">
+        <v>0.72</v>
+      </c>
+      <c r="E165">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
         <v>215</v>
       </c>
-      <c r="M56">
+      <c r="C166">
         <v>0.62</v>
       </c>
-      <c r="N56">
+      <c r="D166">
         <v>0.69</v>
       </c>
-      <c r="O56">
+      <c r="E166">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>216</v>
+      </c>
+      <c r="C167">
+        <v>0.33</v>
+      </c>
+      <c r="D167">
+        <v>0.33</v>
+      </c>
+      <c r="E167">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>217</v>
+      </c>
+      <c r="C168">
+        <v>0.69</v>
+      </c>
+      <c r="D168">
+        <v>1.26</v>
+      </c>
+      <c r="E168">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>218</v>
+      </c>
+      <c r="C169">
+        <v>0.82</v>
+      </c>
+      <c r="D169">
+        <v>0.99</v>
+      </c>
+      <c r="E169">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>219</v>
+      </c>
+      <c r="C170">
+        <v>1.02</v>
+      </c>
+      <c r="D170">
+        <v>1.05</v>
+      </c>
+      <c r="E170">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>220</v>
+      </c>
+      <c r="C171">
+        <v>0.63</v>
+      </c>
+      <c r="D171">
+        <v>0.65</v>
+      </c>
+      <c r="E171">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>221</v>
+      </c>
+      <c r="C172">
+        <v>0.43</v>
+      </c>
+      <c r="D172">
+        <v>0.78</v>
+      </c>
+      <c r="E172">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>222</v>
+      </c>
+      <c r="C173">
+        <v>0.92</v>
+      </c>
+      <c r="D173">
+        <v>0.87</v>
+      </c>
+      <c r="E173">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>223</v>
+      </c>
+      <c r="C174">
+        <v>0.81</v>
+      </c>
+      <c r="D174">
+        <v>0.08</v>
+      </c>
+      <c r="E174">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>224</v>
+      </c>
+      <c r="C175">
+        <v>0.85</v>
+      </c>
+      <c r="D175">
+        <v>1.03</v>
+      </c>
+      <c r="E175">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>226</v>
+      </c>
+      <c r="C176">
+        <v>0.84</v>
+      </c>
+      <c r="D176">
+        <v>1.04</v>
+      </c>
+      <c r="E176">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>227</v>
+      </c>
+      <c r="C177">
+        <v>0.99</v>
+      </c>
+      <c r="D177">
+        <v>0.88</v>
+      </c>
+      <c r="E177">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>228</v>
+      </c>
+      <c r="C178">
+        <v>1.06</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>229</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E179">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>230</v>
+      </c>
+      <c r="C180">
+        <v>0.59</v>
+      </c>
+      <c r="D180">
+        <v>0.72</v>
+      </c>
+      <c r="E180">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>231</v>
+      </c>
+      <c r="C181">
+        <v>1.28</v>
+      </c>
+      <c r="D181">
+        <v>1.46</v>
+      </c>
+      <c r="E181">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>232</v>
+      </c>
+      <c r="C182">
+        <v>0.92</v>
+      </c>
+      <c r="D182">
+        <v>1.21</v>
+      </c>
+      <c r="E182">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>233</v>
+      </c>
+      <c r="C183">
+        <v>0.89</v>
+      </c>
+      <c r="D183">
+        <v>0.86</v>
+      </c>
+      <c r="E183">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>234</v>
+      </c>
+      <c r="C184">
+        <v>0.62</v>
+      </c>
+      <c r="D184">
+        <v>0.81</v>
+      </c>
+      <c r="E184">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>235</v>
+      </c>
+      <c r="C185">
+        <v>0.94</v>
+      </c>
+      <c r="D185">
+        <v>1.08</v>
+      </c>
+      <c r="E185">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>237</v>
+      </c>
+      <c r="C186">
+        <v>0.79</v>
+      </c>
+      <c r="D186">
+        <v>1.19</v>
+      </c>
+      <c r="E186">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>239</v>
+      </c>
+      <c r="C187">
+        <v>0.81</v>
+      </c>
+      <c r="D187">
+        <v>0.8</v>
+      </c>
+      <c r="E187">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>240</v>
+      </c>
+      <c r="C188">
+        <v>0.6</v>
+      </c>
+      <c r="D188">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E188">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>241</v>
+      </c>
+      <c r="C189">
+        <v>0.68</v>
+      </c>
+      <c r="D189">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E189">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>242</v>
+      </c>
+      <c r="C190">
+        <v>0.59</v>
+      </c>
+      <c r="D190">
+        <v>0.7</v>
+      </c>
+      <c r="E190">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>243</v>
+      </c>
+      <c r="C191">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D191">
+        <v>0.84</v>
+      </c>
+      <c r="E191">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>244</v>
+      </c>
+      <c r="C192">
+        <v>0.73</v>
+      </c>
+      <c r="D192">
+        <v>0.79</v>
+      </c>
+      <c r="E192">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>245</v>
+      </c>
+      <c r="C193">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D193">
+        <v>0.54</v>
+      </c>
+      <c r="E193">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>246</v>
+      </c>
+      <c r="C194">
+        <v>1.23</v>
+      </c>
+      <c r="D194">
+        <v>1.85</v>
+      </c>
+      <c r="E194">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>247</v>
+      </c>
+      <c r="C195">
+        <v>0.8</v>
+      </c>
+      <c r="D195">
+        <v>0.66</v>
+      </c>
+      <c r="E195">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>248</v>
+      </c>
+      <c r="C196">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D196">
+        <v>0.65</v>
+      </c>
+      <c r="E196">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>250</v>
+      </c>
+      <c r="C197">
+        <v>0.79</v>
+      </c>
+      <c r="D197">
+        <v>0.84</v>
+      </c>
+      <c r="E197">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>251</v>
+      </c>
+      <c r="C198">
+        <v>0.99</v>
+      </c>
+      <c r="D198">
+        <v>0.95</v>
+      </c>
+      <c r="E198">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>252</v>
+      </c>
+      <c r="C199">
+        <v>0.78</v>
+      </c>
+      <c r="D199">
+        <v>0.38</v>
+      </c>
+      <c r="E199">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>253</v>
+      </c>
+      <c r="C200">
+        <v>0.8</v>
+      </c>
+      <c r="D200">
+        <v>0.89</v>
+      </c>
+      <c r="E200">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>254</v>
+      </c>
+      <c r="C201">
+        <v>0.51</v>
+      </c>
+      <c r="D201">
+        <v>0.84</v>
+      </c>
+      <c r="E201">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>256</v>
+      </c>
+      <c r="C202">
+        <v>0.95</v>
+      </c>
+      <c r="D202">
+        <v>0.72</v>
+      </c>
+      <c r="E202">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>257</v>
+      </c>
+      <c r="C203">
+        <v>0.63</v>
+      </c>
+      <c r="D203">
+        <v>0.69</v>
+      </c>
+      <c r="E203">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>259</v>
+      </c>
+      <c r="C204">
+        <v>0.59</v>
+      </c>
+      <c r="D204">
+        <v>0.62</v>
+      </c>
+      <c r="E204">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>403</v>
+      </c>
+      <c r="C205">
+        <v>0.92</v>
+      </c>
+      <c r="D205">
+        <v>0.92</v>
+      </c>
+      <c r="E205">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>404</v>
+      </c>
+      <c r="C206">
+        <v>1.4</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>405</v>
+      </c>
+      <c r="C207">
+        <v>0.72</v>
+      </c>
+      <c r="D207">
+        <v>0.79</v>
+      </c>
+      <c r="E207">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>406</v>
+      </c>
+      <c r="C208">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D208">
+        <v>0.45</v>
+      </c>
+      <c r="E208">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>407</v>
+      </c>
+      <c r="C209">
+        <v>0.84</v>
+      </c>
+      <c r="D209">
+        <v>0.82</v>
+      </c>
+      <c r="E209">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>409</v>
+      </c>
+      <c r="C210">
+        <v>0.84</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>410</v>
+      </c>
+      <c r="C211">
+        <v>0.94</v>
+      </c>
+      <c r="D211">
+        <v>0.91</v>
+      </c>
+      <c r="E211">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>411</v>
+      </c>
+      <c r="C212">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D212">
+        <v>0.92</v>
+      </c>
+      <c r="E212">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>412</v>
+      </c>
+      <c r="C213">
+        <v>0.95</v>
+      </c>
+      <c r="D213">
+        <v>0.7</v>
+      </c>
+      <c r="E213">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>413</v>
+      </c>
+      <c r="C214">
+        <v>0.74</v>
+      </c>
+      <c r="D214">
+        <v>0.67</v>
+      </c>
+      <c r="E214">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>414</v>
+      </c>
+      <c r="C215">
+        <v>0.93</v>
+      </c>
+      <c r="D215">
+        <v>1.34</v>
+      </c>
+      <c r="E215">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>415</v>
+      </c>
+      <c r="C216">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D216">
+        <v>1.38</v>
+      </c>
+      <c r="E216">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>416</v>
+      </c>
+      <c r="C217">
+        <v>0.96</v>
+      </c>
+      <c r="D217">
+        <v>0.94</v>
+      </c>
+      <c r="E217">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>417</v>
+      </c>
+      <c r="C218">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D218">
+        <v>1.32</v>
+      </c>
+      <c r="E218">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>418</v>
+      </c>
+      <c r="C219">
+        <v>0.96</v>
+      </c>
+      <c r="D219">
+        <v>0.87</v>
+      </c>
+      <c r="E219">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>419</v>
+      </c>
+      <c r="C220">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
         <v>0.81</v>
       </c>
     </row>
